--- a/src/docs/GE3_TestCasesTemplate_2023.xlsx
+++ b/src/docs/GE3_TestCasesTemplate_2023.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="333">
   <si>
     <t>#</t>
   </si>
@@ -1244,6 +1244,15 @@
   </si>
   <si>
     <t>Return true y añade al archivo store_delivery</t>
+  </si>
+  <si>
+    <t>blucle for</t>
+  </si>
+  <si>
+    <t>bucle_for</t>
+  </si>
+  <si>
+    <t>Que entre en el bucle for varias veces</t>
   </si>
 </sst>
 </file>
@@ -11084,7 +11093,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A7" si="1">A5+1</f>
+        <f t="shared" ref="A6:A8" si="1">A5+1</f>
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -11097,7 +11106,7 @@
         <v>324</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>325</v>
@@ -11127,12 +11136,25 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
